--- a/TradingBook.xlsx
+++ b/TradingBook.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="trade" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Adani Power</t>
   </si>
@@ -60,9 +61,6 @@
     <t>cipla</t>
   </si>
   <si>
-    <t>No clear signal</t>
-  </si>
-  <si>
     <t>godcon</t>
   </si>
   <si>
@@ -114,17 +112,47 @@
     <t>Commentary</t>
   </si>
   <si>
-    <t>30/10: First hour price gone to 5801, vwap gone to 5808</t>
-  </si>
-  <si>
-    <t>30/10: First hour price gone to 1561, vwap gone to 1566.87</t>
+    <t>position</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Paper Trade Date</t>
+  </si>
+  <si>
+    <t>Today EOD</t>
+  </si>
+  <si>
+    <t>2. bad day lost almost 3%, Q2 FY2026 results announced, which may caused the drop
+1. No clear signal</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>Always careful about near future events or result declaration</t>
+  </si>
+  <si>
+    <t>exit price</t>
+  </si>
+  <si>
+    <t>31/10: doesn't show too much promise, and in general news is also not for great uptrend, so will close position at 165.8 based on todays high</t>
+  </si>
+  <si>
+    <t>31/10:  due to average result dclared and change in managemt price went down, however putting stop loss at 1520 to avoid too much loss on this trade
+30/10: First hour price gone to 1561, vwap gone to 1566.87</t>
+  </si>
+  <si>
+    <t>31/10:price went down to 5800, should have bought at that level, in the end it is showing -CVD which is not sure if correct. Volume doubled, selling does happen. However looking at 1 day candle it is green umbrella at bottom and vwap also increased from 1st tick to last tick.. BUT VWAP is at 5818 whereas mkt price 5859.. so no clear direction
+30/10: First hour price gone to 5801, vwap gone to 5808</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,8 +172,16 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,8 +206,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -179,11 +221,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -196,6 +253,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,12 +544,13 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="81.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -503,7 +569,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3">
         <v>45960</v>
@@ -552,7 +618,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3">
         <v>45960</v>
@@ -579,9 +645,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3">
         <v>45960</v>
@@ -604,8 +670,8 @@
       <c r="I5">
         <v>75568</v>
       </c>
-      <c r="J5" t="s">
-        <v>11</v>
+      <c r="J5" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -613,7 +679,7 @@
         <v>45960</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>2585345</v>
@@ -639,7 +705,7 @@
         <v>45960</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>5573121</v>
@@ -657,7 +723,7 @@
         <v>65779</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -665,7 +731,7 @@
         <v>45960</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>502785</v>
@@ -683,15 +749,15 @@
         <v>22000</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>45960</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>2170625</v>
@@ -709,7 +775,7 @@
         <v>-9497</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -720,150 +786,252 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S4"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="16" max="16" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
+    <row r="1" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" s="3">
         <v>45960</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3">
+        <f ca="1">TODAY()</f>
+        <v>45961</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>4451329</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2">
-        <v>161.15</v>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G2">
+        <v>162.57</v>
+      </c>
+      <c r="H2">
         <v>162.1</v>
       </c>
-      <c r="H2">
-        <f>I2/G2</f>
+      <c r="I2">
+        <f>J2/H2</f>
         <v>616.90314620604568</v>
       </c>
-      <c r="I2">
-        <f>0.1*S2</f>
+      <c r="J2">
+        <f>0.1*V2</f>
         <v>100000</v>
       </c>
-      <c r="J2">
-        <f>(F2-G2)*H2</f>
-        <v>-586.05798889573634</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2">
+      <c r="K2">
+        <f>(G2-H2)*I2</f>
+        <v>289.94447871684076</v>
+      </c>
+      <c r="L2">
+        <f>K2*100/(H2*I2)</f>
+        <v>0.28994447871684076</v>
+      </c>
+      <c r="M2">
+        <f>0.98*G2</f>
+        <v>159.3186</v>
+      </c>
+      <c r="N2">
+        <v>165.82</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2">
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" s="3">
         <v>45960</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3">
+        <f ca="1">TODAY()</f>
+        <v>45961</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>140033</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>5807</v>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G3">
+        <v>5859</v>
+      </c>
+      <c r="H3">
         <v>5855</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H4" si="0">I3/G3</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I4" si="0">J3/H3</f>
         <v>17.079419299743808</v>
       </c>
-      <c r="I3">
-        <f>0.1*S2</f>
+      <c r="J3">
+        <f>0.1*V2</f>
         <v>100000</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J4" si="1">(F3-G3)*H3</f>
-        <v>-819.81212638770285</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="K3">
+        <f t="shared" ref="K3:K4" si="1">(G3-H3)*I3</f>
+        <v>68.317677198975232</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L4" si="2">K3*100/(H3*I3)</f>
+        <v>6.8317677198975232E-2</v>
+      </c>
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="P3" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" s="3">
         <v>45960</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3">
+        <f ca="1">TODAY()</f>
+        <v>45961</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>177665</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4">
-        <v>1565.8</v>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="G4">
+        <v>1540.1</v>
+      </c>
+      <c r="H4">
         <v>1581.1</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="0"/>
         <v>63.247106444880153</v>
       </c>
-      <c r="I4">
-        <f>0.1*S2</f>
+      <c r="J4">
+        <f>0.1*V2</f>
         <v>100000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="1"/>
-        <v>-967.68072860666348</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
+        <v>-2593.1313642400864</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>-2.5931313642400866</v>
+      </c>
+      <c r="M4">
+        <v>1520</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>165.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/TradingBook.xlsx
+++ b/TradingBook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LEARNINGS" sheetId="4" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$K$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">trade!$A$1:$X$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$K$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">trade!$A$1:$X$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="158">
   <si>
     <t>Adani Power</t>
   </si>
@@ -541,12 +541,6 @@
     <t>5633,</t>
   </si>
   <si>
-    <t>1215745,</t>
-  </si>
-  <si>
-    <t>315393,</t>
-  </si>
-  <si>
     <t>387073,</t>
   </si>
   <si>
@@ -596,13 +590,55 @@
   </si>
   <si>
     <t>3660545,</t>
+  </si>
+  <si>
+    <t>NMDC</t>
+  </si>
+  <si>
+    <t>TVSMotor</t>
+  </si>
+  <si>
+    <t>Voltas</t>
+  </si>
+  <si>
+    <t>Naukri</t>
+  </si>
+  <si>
+    <t>Interglobe aviation</t>
+  </si>
+  <si>
+    <t>Major bearish</t>
+  </si>
+  <si>
+    <t>jswste</t>
+  </si>
+  <si>
+    <t>varun</t>
+  </si>
+  <si>
+    <t>40193,</t>
+  </si>
+  <si>
+    <t>2865921,</t>
+  </si>
+  <si>
+    <t>502785,</t>
+  </si>
+  <si>
+    <t>3001089,</t>
+  </si>
+  <si>
+    <t>4843777,</t>
+  </si>
+  <si>
+    <t>NTPC Green</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,14 +726,8 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -718,19 +748,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -770,29 +788,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -816,10 +827,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -850,7 +857,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1172,39 +1188,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9:E43"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="12"/>
-    <col min="9" max="9" width="6.28515625" customWidth="1"/>
-    <col min="11" max="11" width="81.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="24"/>
+    <col min="2" max="2" width="11.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="24" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="24"/>
+    <col min="9" max="9" width="6.28515625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="24"/>
+    <col min="11" max="11" width="81.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F1" t="s">
+      <c r="F1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1217,7 +1235,7 @@
       <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="15">
         <v>4451329</v>
       </c>
       <c r="F2">
@@ -1230,68 +1248,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="9">
         <v>45960</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="55">
         <v>40193</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="14">
         <v>7858.5</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="14">
         <v>7881</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="14">
         <v>7863</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="14">
         <v>-8838</v>
       </c>
       <c r="K3" s="35" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="52" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+    <row r="4" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="46">
         <v>45960</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="47">
         <v>140033</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="45">
         <v>5855</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="45">
         <v>5881</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="45">
         <v>5873</v>
       </c>
-      <c r="J4" s="52">
+      <c r="J4" s="45">
         <v>33262</v>
       </c>
-      <c r="K4" s="52" t="s">
+      <c r="K4" s="45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -1304,7 +1322,7 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="15">
         <v>177665</v>
       </c>
       <c r="F5">
@@ -1319,11 +1337,11 @@
       <c r="J5">
         <v>75568</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -1333,7 +1351,7 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>2585345</v>
       </c>
       <c r="F6">
@@ -1348,11 +1366,11 @@
       <c r="J6">
         <v>-208927</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -1362,7 +1380,7 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>5573121</v>
       </c>
       <c r="F7">
@@ -1381,7 +1399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -1391,7 +1409,7 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>502785</v>
       </c>
       <c r="F8">
@@ -1409,115 +1427,115 @@
       <c r="J8">
         <v>22000</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:11" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="50">
         <v>45960</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="27">
         <v>2170625</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="27">
         <v>3498.9</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="27">
         <v>3574</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="27">
         <v>3452</v>
       </c>
-      <c r="J9" s="48">
+      <c r="J9" s="27">
         <v>-9497</v>
       </c>
       <c r="K9" s="51" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:11" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="50">
         <v>45961</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="27">
         <v>951809</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="27">
         <v>1419.8</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="27">
         <v>1325</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="51" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="16" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>45961</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>79873</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="14">
         <v>3059</v>
       </c>
-      <c r="K11" s="42" t="s">
+      <c r="K11" s="35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="50">
         <v>45961</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="27">
         <v>5728513</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="27">
         <v>1178</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="27">
         <v>1145</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="27">
         <v>1130</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -1527,7 +1545,7 @@
       <c r="D13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <v>519937</v>
       </c>
       <c r="F13">
@@ -1537,27 +1555,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="25">
         <v>45961</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="13">
         <v>225537</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="13">
         <v>1202</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -1567,17 +1585,17 @@
       <c r="D15" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <v>197633</v>
       </c>
       <c r="F15">
         <v>501.55</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="K15" s="26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -1590,7 +1608,7 @@
       <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
         <v>900609</v>
       </c>
       <c r="F16">
@@ -1600,7 +1618,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -1610,7 +1628,7 @@
       <c r="D17" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="10">
         <v>7488257</v>
       </c>
       <c r="G17">
@@ -1620,153 +1638,153 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="48" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+    <row r="18" spans="1:11" s="41" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="42">
         <v>45964</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="41">
         <v>548865</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="41">
         <v>1530</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="41">
         <v>1529</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="41">
         <v>1447</v>
       </c>
-      <c r="K18" s="51" t="s">
+      <c r="K18" s="44" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+    <row r="19" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="43">
+      <c r="C19" s="36">
         <v>45965</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="30">
         <v>1510401</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="30">
         <v>1229</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="30">
         <v>1231</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:11" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="50">
         <v>45965</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="27">
         <v>2977281</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="27">
         <v>345</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="27">
         <v>328</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="51" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>74</v>
       </c>
       <c r="D21" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <v>952577</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="50">
         <v>45966</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="27">
         <v>424961</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="27">
         <v>412</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="27">
         <v>408</v>
       </c>
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="54" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="37">
         <v>45966</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="39">
         <v>1076225</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="11">
         <v>105.8</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="11">
         <v>105.63</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="11">
         <v>104.84</v>
       </c>
-      <c r="K23" s="47" t="s">
+      <c r="K23" s="40" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="50">
         <v>45968</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="27">
         <v>5633</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="27">
         <v>1833.05</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -1776,48 +1794,48 @@
       <c r="D25" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="10">
         <v>175361</v>
       </c>
       <c r="G25">
         <v>1700.53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="1">
+    <row r="26" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="50">
         <v>45968</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="27">
         <v>1215745</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="27">
         <v>523.20000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="1">
+    <row r="27" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="50">
         <v>45968</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="27">
         <v>315393</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="27">
         <v>2735.56</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -1827,48 +1845,48 @@
       <c r="D28" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="10">
         <v>119553</v>
       </c>
       <c r="G28">
         <v>739.8</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="50">
         <v>45968</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="27">
         <v>387073</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="27">
         <v>710</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="50">
         <v>45968</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="27">
         <v>3520257</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="27">
         <v>1331.63</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -1878,31 +1896,31 @@
       <c r="D31" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="10">
         <v>4574465</v>
       </c>
       <c r="G31">
         <v>522.52</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="50">
         <v>45968</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="53">
         <v>4632577</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="27">
         <v>586.27</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -1924,44 +1942,44 @@
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="50">
         <v>45968</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="27">
         <v>4454401</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="27">
         <v>82.46</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="50">
         <v>45968</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="27">
         <v>6412545</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="27">
         <v>1017.33</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -1971,125 +1989,174 @@
       <c r="D36" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="10">
         <v>3930881</v>
       </c>
       <c r="G36">
         <v>365.71</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="50">
         <v>45968</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="27">
         <v>3529217</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="27">
         <v>1278.94</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="50">
         <v>45971</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="27">
         <v>3329</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="27">
         <v>5014.82</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="50">
         <v>45971</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="27">
+        <v>348929</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="50">
+        <v>45971</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="27">
+        <v>2939649</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="50">
+        <v>45971</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="27">
+        <v>3924993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="50">
+        <v>45971</v>
+      </c>
+      <c r="D42" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="E39" s="12">
-        <v>348929</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="E42" s="27">
+        <v>6957057</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C43" s="50">
         <v>45971</v>
       </c>
-      <c r="D40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="12">
-        <v>2939649</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="D43" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="27">
+        <v>3660545</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="1">
-        <v>45971</v>
-      </c>
-      <c r="D41" t="s">
-        <v>137</v>
-      </c>
-      <c r="E41" s="12">
-        <v>3924993</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="C44" s="52">
+        <v>45972</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="55">
+        <v>40193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="1">
-        <v>45971</v>
-      </c>
-      <c r="D42" t="s">
-        <v>138</v>
-      </c>
-      <c r="E42" s="12">
-        <v>6957057</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="D45" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="24">
+        <v>2865921</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="1">
-        <v>45971</v>
-      </c>
-      <c r="D43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E43" s="12">
-        <v>3660545</v>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="10">
+        <v>502785</v>
+      </c>
+      <c r="K46" s="24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D47" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="24">
+        <v>3001089</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D48" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="24">
+        <v>4843777</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K43">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Tracking"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K48"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2098,325 +2165,325 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="8" customWidth="1"/>
-    <col min="2" max="3" width="10.140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="29"/>
-    <col min="5" max="5" width="5.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="12.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="8" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="8"/>
-    <col min="12" max="12" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="8" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="8"/>
-    <col min="16" max="16" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="8"/>
-    <col min="18" max="18" width="50.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" style="8" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="5" style="7" customWidth="1"/>
+    <col min="2" max="3" width="10.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="24"/>
+    <col min="5" max="5" width="5.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="7"/>
+    <col min="7" max="7" width="12.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="7" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="7"/>
+    <col min="12" max="12" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="7" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="7"/>
+    <col min="16" max="16" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="7"/>
+    <col min="18" max="18" width="50.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="7" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="17">
         <v>45960</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="20">
         <v>4451329</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="20">
         <v>158.06</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>165.82</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>162.1</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <f>K2/I2</f>
         <v>616.90314620604568</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <f>0.1*X2</f>
         <v>100000</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <f>(G2-I2)*J2</f>
         <v>2294.8797038864891</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <f>L2*100/(I2*J2)</f>
         <v>2.294879703886489</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="7">
         <v>165.82</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="22">
+      <c r="S2" s="17">
         <f t="shared" ref="S2:S17" ca="1" si="0">TODAY()</f>
-        <v>45971</v>
-      </c>
-      <c r="V2" s="8" t="s">
+        <v>45972</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="7">
         <v>1000000</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="17">
         <v>45960</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="20">
         <v>140033</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>5825</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="33">
         <v>6125</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="8">
+      <c r="H3" s="33"/>
+      <c r="I3" s="7">
         <v>5855</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <f t="shared" ref="J3:J5" si="1">K3/I3</f>
         <v>17.079419299743808</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <f>0.1*X2</f>
         <v>100000</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <f>(G3-I3)*J3</f>
         <v>4611.4432109308282</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <f t="shared" ref="M3:M4" si="2">L3*100/(I3*J3)</f>
         <v>4.6114432109308288</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <f>1.03*H3</f>
         <v>0</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="7">
         <f>1.03*I3</f>
         <v>6030.6500000000005</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="18">
         <v>45967</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="55" t="s">
+      <c r="R3" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="S3" s="22">
+      <c r="S3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45971</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="17">
         <v>45960</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="20">
         <v>177665</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="8">
+      <c r="F4" s="20"/>
+      <c r="G4" s="7">
         <v>1540.1</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>1581.1</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <f t="shared" si="1"/>
         <v>63.247106444880153</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <f>0.1*X2</f>
         <v>100000</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <f t="shared" ref="L4" si="3">(G4-I4)*J4</f>
         <v>-2593.1313642400864</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <f t="shared" si="2"/>
         <v>-2.5931313642400866</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <v>1520</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="18">
         <v>45961</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="28" t="s">
+      <c r="R4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="22">
+      <c r="S4" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45971</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
+        <v>45972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="19">
         <v>45961</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="27">
         <v>519937</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="27">
         <v>3497</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="22">
         <v>3558.9</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="22">
         <v>3502</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="22">
         <f t="shared" si="1"/>
         <v>28.555111364934323</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="22">
         <v>100000</v>
       </c>
-      <c r="L5" s="27">
+      <c r="L5" s="22">
         <f t="shared" ref="L5" si="4">(G5-I5)*J5</f>
         <v>1624.7858366647656</v>
       </c>
-      <c r="M5" s="27">
+      <c r="M5" s="22">
         <f t="shared" ref="M5" si="5">L5*100/(I5*J5)</f>
         <v>1.6247858366647656</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O5" s="22">
         <v>3558.9</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="19">
         <v>45961</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="Q5" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="27" t="s">
+      <c r="R5" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="24">
+      <c r="S5" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45971</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="6" spans="1:24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -2426,13 +2493,13 @@
       <c r="B6" s="2">
         <v>45961</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="20">
         <v>177665</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="4"/>
@@ -2468,769 +2535,878 @@
       </c>
       <c r="S6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45971</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="18">
         <v>45964</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="24">
         <v>345089</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>5539</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>5285</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>5544</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <f>K7/I7</f>
         <v>18.037518037518037</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>100000</v>
       </c>
       <c r="L7">
         <f t="shared" si="7"/>
         <v>-4671.7171717171714</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <f t="shared" si="8"/>
         <v>-4.6717171717171713</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <v>5285</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="18">
         <v>45965</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="R7" s="26" t="s">
+      <c r="R7" s="21" t="s">
         <v>84</v>
       </c>
       <c r="S7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45971</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="19">
         <v>45961</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="27">
         <v>519937</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="27">
         <v>3497</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="22">
         <v>3556</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27">
+      <c r="H8" s="22"/>
+      <c r="I8" s="22">
         <v>3502</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="22">
         <f t="shared" ref="J8" si="9">K8/I8</f>
         <v>28.555111364934323</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="22">
         <v>100000</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="22">
         <f t="shared" ref="L8:L10" si="10">(G8-I8)*J8</f>
         <v>1541.9760137064534</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="22">
         <f t="shared" ref="M8:M10" si="11">L8*100/(I8*J8)</f>
         <v>1.5419760137064533</v>
       </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27">
+      <c r="N8" s="22"/>
+      <c r="O8" s="22">
         <v>3558.9</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="19">
         <v>45961</v>
       </c>
-      <c r="Q8" s="27" t="s">
+      <c r="Q8" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="S8" s="24">
+      <c r="S8" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>45971</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="18">
         <v>45964</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>197633</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>490.41</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>502</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>488.75</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <f t="shared" ref="J9:J17" si="12">K9/I9</f>
         <v>204.60358056265986</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>100000</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <f t="shared" si="10"/>
         <v>2710.9974424552429</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <f t="shared" si="11"/>
         <v>2.710997442455243</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <v>500.8</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="18">
         <v>45964</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45971</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="18">
         <v>45964</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>5573121</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>2000</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>2037</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>2004.6</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <f t="shared" si="12"/>
         <v>49.885263893045995</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>100000</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <f t="shared" si="10"/>
         <v>1616.2825501346947</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <f t="shared" si="11"/>
         <v>1.6162825501346947</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="7">
         <v>2044.8</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="18">
         <v>45965</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="Q10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="R10" s="34" t="s">
+      <c r="R10" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45971</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="18">
         <v>45964</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>197633</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>490.41</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>502</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>488.75</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <f t="shared" si="12"/>
         <v>204.60358056265986</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>100000</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <f t="shared" ref="L11" si="13">(G11-I11)*J11</f>
         <v>2710.9974424552429</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <f t="shared" ref="M11:M13" si="14">L11*100/(I11*J11)</f>
         <v>2.710997442455243</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <v>500.8</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="18">
         <v>45964</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="R11" s="34" t="s">
+      <c r="R11" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="S11" s="23">
+      <c r="S11" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45971</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="18">
         <v>45965</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="24">
         <v>345089</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>5539</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>5285</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>5544</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <f t="shared" si="12"/>
         <v>18.037518037518037</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>100000</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <f>(G12-I12)*J12</f>
         <v>-4671.7171717171714</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <f t="shared" si="14"/>
         <v>-4.6717171717171713</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="Q12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="S12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45971</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="18">
         <v>45965</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="24">
         <v>5728513</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>1147</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>1136</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>1147</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <f t="shared" si="12"/>
         <v>87.183958151700082</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>100000</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <f>(G13-I13)*J13</f>
         <v>-959.02353966870089</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <f t="shared" si="14"/>
         <v>-0.9590235396687008</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <f>1147*0.97</f>
         <v>1112.5899999999999</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="Q13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="R13" s="33" t="s">
+      <c r="R13" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="S13" s="23">
+      <c r="S13" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45971</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="18">
         <v>45965</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>548865</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>1431.35</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>1532</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <f t="shared" si="12"/>
         <v>65.274151436031332</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>100000</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <f>(G14-I14)*J14</f>
         <v>-6569.8433420365591</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <f t="shared" ref="M14:M15" si="15">L14*100/(I14*J14)</f>
         <v>-6.5698433420365596</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="7">
         <v>1431.35</v>
       </c>
-      <c r="P14" s="23">
+      <c r="P14" s="18">
         <v>45967</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="Q14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="R14" s="33" t="s">
+      <c r="R14" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="S14" s="23">
+      <c r="S14" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45971</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="18">
         <v>45965</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <v>5573121</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>2044.8</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>2004.6</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <f t="shared" si="12"/>
         <v>49.885263893045995</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>100000</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <f t="shared" ref="L15" si="16">(G15-I15)*J15</f>
         <v>2005.3876085004513</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <f t="shared" si="15"/>
         <v>2.0053876085004512</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="7">
         <v>2044.8</v>
       </c>
-      <c r="Q15" s="8" t="s">
+      <c r="Q15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="S15" s="23">
+      <c r="S15" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45971</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="18">
         <v>45965</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="32" t="s">
         <v>79</v>
       </c>
       <c r="D16">
         <v>2977281</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>331.12</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>326.25</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <v>330.05</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <f t="shared" si="12"/>
         <v>302.98439630359036</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>100000</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <f t="shared" ref="L16" si="17">(G16-I16)*J16</f>
         <v>-1151.3407059536469</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <f t="shared" ref="M16:M18" si="18">L16*100/(I16*J16)</f>
         <v>-1.1513407059536469</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <v>323</v>
       </c>
-      <c r="Q16" s="8" t="s">
+      <c r="Q16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="R16" s="33" t="s">
+      <c r="R16" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="S16" s="23">
+      <c r="S16" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45971</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="18">
         <v>45967</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="10">
         <v>548865</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>1431.35</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <v>1532</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <f t="shared" si="12"/>
         <v>65.274151436031332</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <v>100000</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <f>(G17-I17)*J17</f>
         <v>-6569.8433420365591</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="7">
         <f t="shared" si="18"/>
         <v>-6.5698433420365596</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="7">
         <v>1431.35</v>
       </c>
-      <c r="Q17" s="8" t="s">
+      <c r="Q17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="R17" s="33" t="s">
+      <c r="R17" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="S17" s="23">
+      <c r="S17" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45971</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="17">
         <v>45967</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="20">
         <v>140033</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>5825</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="33">
         <v>6030.65</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="8">
+      <c r="H18" s="33"/>
+      <c r="I18" s="7">
         <v>5855</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <f t="shared" ref="J18:J19" si="19">K18/I18</f>
         <v>17.079419299743808</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <v>100000</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <f>(G18-I18)*J18</f>
         <v>2999.9999999999936</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="7">
         <f t="shared" si="18"/>
         <v>2.9999999999999938</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <f>1.03*H18</f>
         <v>0</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="7">
         <f>1.03*I18</f>
         <v>6030.6500000000005</v>
       </c>
-      <c r="Q18" s="8" t="s">
+      <c r="Q18" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="18">
         <v>45967</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="39">
         <v>1076225</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>103.78</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>104.7</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <v>103.64</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
         <f t="shared" si="19"/>
         <v>964.87842531840988</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <v>100000</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <f>(G19-I19)*J19</f>
         <v>1022.7711308375167</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="7">
         <f t="shared" ref="M19" si="20">L19*100/(I19*J19)</f>
         <v>1.0227711308375167</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="7">
         <f>0.98*G19</f>
         <v>102.60599999999999</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="7">
         <v>104.7</v>
       </c>
-      <c r="P19" s="23">
+      <c r="P19" s="18">
         <v>45967</v>
       </c>
-      <c r="Q19" s="8" t="s">
+      <c r="Q19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="R19" s="34" t="s">
+      <c r="R19" s="29" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="18">
         <v>45967</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="39">
         <v>1076225</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>103.78</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>104.7</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <v>103.64</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <f t="shared" ref="J20" si="21">K20/I20</f>
         <v>964.87842531840988</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <v>100000</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <f>(G20-I20)*J20</f>
         <v>1022.7711308375167</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="7">
         <f t="shared" ref="M20" si="22">L20*100/(I20*J20)</f>
         <v>1.0227711308375167</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="7">
         <f>0.98*G20</f>
         <v>102.60599999999999</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="7">
         <v>104.7</v>
       </c>
-      <c r="Q20" s="8" t="s">
+      <c r="Q20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="R20" s="56" t="s">
+      <c r="R20" s="49" t="s">
         <v>105</v>
       </c>
     </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="18">
+        <v>45971</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="7">
+        <v>76.33</v>
+      </c>
+      <c r="J21" s="7">
+        <v>65</v>
+      </c>
+      <c r="K21" s="7">
+        <f>I21*J21</f>
+        <v>4961.45</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="18">
+        <v>45971</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="18">
+        <v>45971</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="18">
+        <v>45971</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="18">
+        <v>45971</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="7">
+        <v>97.85</v>
+      </c>
+      <c r="J26" s="7">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:X20">
+  <autoFilter ref="A1:X25">
     <filterColumn colId="16">
       <filters>
         <filter val="open"/>
@@ -3265,10 +3441,10 @@
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>5573121</v>
       </c>
       <c r="K2" t="s">
@@ -3276,10 +3452,10 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>548865</v>
       </c>
       <c r="K3" t="s">
@@ -3290,7 +3466,7 @@
       <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>79873</v>
       </c>
       <c r="L4" t="s">
@@ -3312,7 +3488,7 @@
       <c r="B6" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="24">
         <v>5728513</v>
       </c>
       <c r="K6" t="s">
@@ -3320,10 +3496,10 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="20">
         <v>140033</v>
       </c>
       <c r="K7" t="s">
@@ -3342,16 +3518,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Z21"/>
+  <dimension ref="A2:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:Z3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="48">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="27">
         <v>2170625</v>
       </c>
       <c r="C2" t="s">
@@ -3362,8 +3541,11 @@
         <v>2170625,</v>
       </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="12">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="27">
         <v>951809</v>
       </c>
       <c r="C3" t="s">
@@ -3410,10 +3592,10 @@
         <v>132</v>
       </c>
       <c r="S3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="T3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="U3" t="s">
         <v>140</v>
@@ -3428,14 +3610,26 @@
         <v>143</v>
       </c>
       <c r="Y3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="Z3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="20">
+        <v>153</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="27">
         <v>5728513</v>
       </c>
       <c r="C4" t="s">
@@ -3446,8 +3640,11 @@
         <v>5728513,</v>
       </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="12">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="27">
         <v>2977281</v>
       </c>
       <c r="C5" t="s">
@@ -3458,8 +3655,11 @@
         <v>2977281,</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="27">
         <v>424961</v>
       </c>
       <c r="C6" t="s">
@@ -3470,8 +3670,11 @@
         <v>424961,</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="27">
         <v>5633</v>
       </c>
       <c r="C7" t="s">
@@ -3482,175 +3685,263 @@
         <v>5633,</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
-        <v>1215745</v>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="27">
+        <v>387073</v>
       </c>
       <c r="C8" t="s">
         <v>120</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>1215745,</v>
-      </c>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="12">
-        <v>315393</v>
+        <v>387073,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="27">
+        <v>3520257</v>
       </c>
       <c r="C9" t="s">
         <v>120</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>315393,</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
-        <v>387073</v>
+        <v>3520257,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="53">
+        <v>4632577</v>
       </c>
       <c r="C10" t="s">
         <v>120</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>387073,</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="12">
-        <v>3520257</v>
+        <v>4632577,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="27">
+        <v>4454401</v>
       </c>
       <c r="C11" t="s">
         <v>120</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>3520257,</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="57">
-        <v>4632577</v>
+        <v>4454401,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="27">
+        <v>6412545</v>
       </c>
       <c r="C12" t="s">
         <v>120</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>4632577,</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
-        <v>4454401</v>
+        <v>6412545,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="27">
+        <v>3529217</v>
       </c>
       <c r="C13" t="s">
         <v>120</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>4454401,</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
-        <v>6412545</v>
+        <v>3529217,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="27">
+        <v>3329</v>
       </c>
       <c r="C14" t="s">
         <v>120</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>6412545,</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
-        <v>3529217</v>
+        <v>3329,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="27">
+        <v>348929</v>
       </c>
       <c r="C15" t="s">
         <v>120</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>3529217,</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="12">
-        <v>3329</v>
+        <v>348929,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="27">
+        <v>2939649</v>
       </c>
       <c r="C16" t="s">
         <v>120</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>3329,</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="12">
-        <v>348929</v>
+        <v>2939649,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="27">
+        <v>3924993</v>
       </c>
       <c r="C17" t="s">
         <v>120</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>348929,</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="12">
-        <v>2939649</v>
+        <v>3924993,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="27">
+        <v>6957057</v>
       </c>
       <c r="C18" t="s">
         <v>120</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>2939649,</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="12">
-        <v>3924993</v>
+        <v>6957057,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="27">
+        <v>3660545</v>
       </c>
       <c r="C19" t="s">
         <v>120</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>3924993,</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="12">
-        <v>6957057</v>
+        <v>3660545,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="55">
+        <v>40193</v>
       </c>
       <c r="C20" t="s">
         <v>120</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>6957057,</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="12">
-        <v>3660545</v>
+        <v>40193,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="24">
+        <v>2865921</v>
       </c>
       <c r="C21" t="s">
         <v>120</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>3660545,</v>
+        <v>2865921,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="10">
+        <v>502785</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" ref="D22:D24" si="1">CONCATENATE(B22,C22)</f>
+        <v>502785,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="24">
+        <v>3001089</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>3001089,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="24">
+        <v>4843777</v>
+      </c>
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>4843777,</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>